--- a/243-sfe-il-reste-des-libellés-incorrectes-pour-le-statut-49-notification-annulée/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/243-sfe-il-reste-des-libellés-incorrectes-pour-le-statut-49-notification-annulée/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:44:21+00:00</t>
+    <t>2024-10-07T14:47:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
